--- a/Resources/configs/国际化数据配置.xlsx
+++ b/Resources/configs/国际化数据配置.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,53 +291,121 @@
     <t>瞻园是南京现存历史最久的一座园林，始建于明嘉靖年间。布局典雅精致，有宏伟壮观的明清古建筑群，陡峭峻拔的假山。|HKHB</t>
   </si>
   <si>
+    <t>明太祖朱元璋与马皇后的陵墓，宏伟壮观，是我国古代最大的帝王陵寝之一。陵园布局气魄恢宏，技艺高超，神道长达2400米。|HKHB</t>
+  </si>
+  <si>
+    <t>原为国民政府主席的寓所，蒋介石、宋美龄常在此居住，主体建筑是一座三层重檐山式宫殿，是南京最壮观、最典雅的建筑之一。|HKHB</t>
+  </si>
+  <si>
+    <t>栖霞山风景迷人，名胜古迹遍布诸峰，被誉为“金陵第一名秀山”，尤其是深秋的栖霞，枫林漫山红遍。|HKHB</t>
+  </si>
+  <si>
+    <t>一处以史料文物、建筑、雕塑、影视等综合手法，全面展示“南京大屠杀”的专史陈列馆，位于原日军大屠杀遗址之一的万人坑。|HKHB</t>
+  </si>
+  <si>
+    <t>孫中山先生的陵墓，被譽為「中國近代建築史上的第一陵」。從空中往下看，像一座平臥在綠絨毯上的「自由鐘」。|DFPT</t>
+  </si>
+  <si>
+    <t>總統府是國民政府中央所在地，見證着太平天國與兩江總督衙門的興衰，迄今已有600多年歷史。|DFPT</t>
+  </si>
+  <si>
+    <t>為供奉祭祀孔子之地，是中國第一所國家最高學府，也是中國四大文廟，是明清時期南京的文教中心。|DFPT</t>
+  </si>
+  <si>
+    <t>瞻園是南京現存歷史最久的一座園林，始建於明嘉靖年間。布局典雅精緻，有宏偉壯觀的明清古建築群，陡峭峻拔的假山。|DFPT</t>
+  </si>
+  <si>
+    <t>玄武湖是中國最大的皇家園林湖泊，與嘉興南湖、杭州西湖並稱「江南三大名湖」，薈萃了許多的名勝古蹟。|DFPT</t>
+  </si>
+  <si>
+    <t>原為國民政府主席的寓所，蔣介石、宋美齡常在此居住，主體建築是一座三層重檐山式宮殿，是南京最壯觀、最典雅的建築之一。|DFPT</t>
+  </si>
+  <si>
+    <t>棲霞山風景迷人，名勝古蹟遍布諸峰，被譽為「金陵第一名秀山」，尤其是深秋的棲霞，楓林漫山紅遍。|DFPT</t>
+  </si>
+  <si>
+    <t>一處以史料文物、建築、雕塑、影視等綜合手法，全面展示「南京大屠殺」的專史陳列館，位於原日軍大屠殺遺址之一的萬人坑。|DFPT</t>
+  </si>
+  <si>
+    <t>Empty|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西津渡古街介绍</t>
+  </si>
+  <si>
+    <t>金山寺介绍</t>
+  </si>
+  <si>
+    <t>北固山介绍</t>
+  </si>
+  <si>
+    <t>焦山介绍</t>
+  </si>
+  <si>
+    <t>得撒石磨豆腐村介绍</t>
+  </si>
+  <si>
+    <t>宝华山国家森林公园介绍</t>
+  </si>
+  <si>
     <t>玄武湖是中国最大的皇家园林湖泊，与嘉兴南湖、杭州西湖并称“江南三大名湖”，荟萃了许多的名胜古迹。|HKHB</t>
-  </si>
-  <si>
-    <t>明太祖朱元璋与马皇后的陵墓，宏伟壮观，是我国古代最大的帝王陵寝之一。陵园布局气魄恢宏，技艺高超，神道长达2400米。|HKHB</t>
-  </si>
-  <si>
-    <t>原为国民政府主席的寓所，蒋介石、宋美龄常在此居住，主体建筑是一座三层重檐山式宫殿，是南京最壮观、最典雅的建筑之一。|HKHB</t>
-  </si>
-  <si>
-    <t>栖霞山风景迷人，名胜古迹遍布诸峰，被誉为“金陵第一名秀山”，尤其是深秋的栖霞，枫林漫山红遍。|HKHB</t>
-  </si>
-  <si>
-    <t>一处以史料文物、建筑、雕塑、影视等综合手法，全面展示“南京大屠杀”的专史陈列馆，位于原日军大屠杀遗址之一的万人坑。|HKHB</t>
-  </si>
-  <si>
-    <t>孫中山先生的陵墓，被譽為「中國近代建築史上的第一陵」。從空中往下看，像一座平臥在綠絨毯上的「自由鐘」。|DFPT</t>
-  </si>
-  <si>
-    <t>總統府是國民政府中央所在地，見證着太平天國與兩江總督衙門的興衰，迄今已有600多年歷史。|DFPT</t>
-  </si>
-  <si>
-    <t>為供奉祭祀孔子之地，是中國第一所國家最高學府，也是中國四大文廟，是明清時期南京的文教中心。|DFPT</t>
-  </si>
-  <si>
-    <t>瞻園是南京現存歷史最久的一座園林，始建於明嘉靖年間。布局典雅精緻，有宏偉壯觀的明清古建築群，陡峭峻拔的假山。|DFPT</t>
-  </si>
-  <si>
-    <t>玄武湖是中國最大的皇家園林湖泊，與嘉興南湖、杭州西湖並稱「江南三大名湖」，薈萃了許多的名勝古蹟。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山寺，原名泽心寺，亦称龙游寺，中国佛教禅宗四大名寺之一。到了唐朝，有个名叫法海的禅师在此开山得金，重建古刹，便更名为金山寺。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北固山，镇江三山名胜之一，远眺北固，横枕大江，石壁嵯峨，山势险固，因此得名北固山。三国时“甘露寺刘备招亲”的故事就发生在北固山。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得撒石磨豆腐村位于江苏句容的茅山北麓，远离尘嚣与雾霾。这里的绿水，源自山涧之泉；这里的呼吸，伴有植物的芬芳。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园因春天黄花漫山而得名，后因南北朝梁代高僧宝志来此结庵讲经，遂易名宝华山。公园里有“林麓之美，峰峦之秀，洞壑之深，烟霞之胜”四大奇景。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明太祖朱元璋與馬皇后的陵墓，宏偉壯觀，是我國古代最大的帝王陵寢之一。陵園布局氣魄恢宏，技藝高超，神道長達2400米。|DFPT</t>
-  </si>
-  <si>
-    <t>原為國民政府主席的寓所，蔣介石、宋美齡常在此居住，主體建築是一座三層重檐山式宮殿，是南京最壯觀、最典雅的建築之一。|DFPT</t>
-  </si>
-  <si>
-    <t>棲霞山風景迷人，名勝古蹟遍布諸峰，被譽為「金陵第一名秀山」，尤其是深秋的棲霞，楓林漫山紅遍。|DFPT</t>
-  </si>
-  <si>
-    <t>一處以史料文物、建築、雕塑、影視等綜合手法，全面展示「南京大屠殺」的專史陳列館，位於原日軍大屠殺遺址之一的萬人坑。|DFPT</t>
-  </si>
-  <si>
-    <t>Empty|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empty|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山寺，原名澤心寺，亦稱龍游寺，中國佛教禪宗四大名寺之一。到了唐朝，有個名叫法海的禪師在此開山得金，重建古剎，便更名為金山寺。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北固山，鎮江三山名勝之一，遠眺北固，橫枕大江，石壁嵯峨，山勢險固，因此得名北固山。三國時「甘露寺劉備招親」的故事就發生在北固山。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得撒石磨豆腐村位於江蘇句容的茅山北麓，遠離塵囂與霧霾。這裡的綠水，源自山澗之泉；這裡的呼吸，伴有植物的芬芳。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公園因春天黃花漫山而得名，後因南北朝梁代高僧寶志來此結庵講經，遂易名寶華山。公園裡有「林麓之美，峰巒之秀，洞壑之深，煙霞之勝」四大奇景。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西津渡古街全长约 1000 米 ，始创于六朝\n时期，历经唐宋元明清五个朝代的建设，整条街随处可见六朝至清代的历史踪迹。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西津渡古街全長約 1000 米 ，始創於六朝\n時期，歷經唐宋元明清五個朝代的建設，整條街隨處可見六朝至清代的歷史蹤跡。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦山是长江中四面环水的岛屿，有江南\n“水上公园”之喻，被誉为“江中浮玉”。身临其境，确有“砥柱中流”之感，好似登上普陀仙岛。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦山是長江中四面環水的島嶼，有江南\n“水上公園”之喻，被譽為“江中浮玉”。身臨其境，確有“砥柱中流”之感，好似登上普陀仙島。|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,7 +1509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1645,18 +1713,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="30.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="10" width="9" style="2" customWidth="1"/>
@@ -1709,13 +1777,13 @@
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3" si="0">"&lt;Text Key="""&amp;A3&amp;""" Value="""&amp;B3&amp;""" /&gt;"</f>
@@ -1742,13 +1810,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G11" si="4">"&lt;Text Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;"</f>
@@ -1775,13 +1843,13 @@
         <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1808,13 +1876,13 @@
         <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1838,16 +1906,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1871,16 +1939,16 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1904,16 +1972,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1937,16 +2005,16 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1970,16 +2038,16 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1996,6 +2064,168 @@
       <c r="J11" s="2" t="str">
         <f t="shared" si="7"/>
         <v>&lt;Text Key="南京大屠杀纪念馆介绍" Value="Empty|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" ref="G12:G17" si="8">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;B12&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="西津渡古街介绍" Value="西津渡古街全长约 1000 米 ，始创于六朝\n时期，历经唐宋元明清五个朝代的建设，整条街随处可见六朝至清代的历史踪迹。|HKHB" /&gt;</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" ref="H12:H17" si="9">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;C12&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="西津渡古街介绍" Value="西津渡古街全長約 1000 米 ，始創於六朝\n時期，歷經唐宋元明清五個朝代的建設，整條街隨處可見六朝至清代的歷史蹤跡。|DFPT" /&gt;</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" ref="I12:I17" si="10">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;D12&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="西津渡古街介绍" Value="" /&gt;</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" ref="J12:J17" si="11">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;E12&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="西津渡古街介绍" Value="" /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Text Key="金山寺介绍" Value="金山寺，原名泽心寺，亦称龙游寺，中国佛教禅宗四大名寺之一。到了唐朝，有个名叫法海的禅师在此开山得金，重建古刹，便更名为金山寺。|HKHB" /&gt;</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;Text Key="金山寺介绍" Value="金山寺，原名澤心寺，亦稱龍游寺，中國佛教禪宗四大名寺之一。到了唐朝，有個名叫法海的禪師在此開山得金，重建古剎，便更名為金山寺。|DFPT" /&gt;</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Text Key="金山寺介绍" Value="" /&gt;</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Text Key="金山寺介绍" Value="" /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Text Key="北固山介绍" Value="北固山，镇江三山名胜之一，远眺北固，横枕大江，石壁嵯峨，山势险固，因此得名北固山。三国时“甘露寺刘备招亲”的故事就发生在北固山。|HKHB" /&gt;</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;Text Key="北固山介绍" Value="北固山，鎮江三山名勝之一，遠眺北固，橫枕大江，石壁嵯峨，山勢險固，因此得名北固山。三國時「甘露寺劉備招親」的故事就發生在北固山。|DFPT" /&gt;</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Text Key="北固山介绍" Value="" /&gt;</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Text Key="北固山介绍" Value="" /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Text Key="焦山介绍" Value="焦山是长江中四面环水的岛屿，有江南\n“水上公园”之喻，被誉为“江中浮玉”。身临其境，确有“砥柱中流”之感，好似登上普陀仙岛。|HKHB" /&gt;</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;Text Key="焦山介绍" Value="焦山是長江中四面環水的島嶼，有江南\n“水上公園”之喻，被譽為“江中浮玉”。身臨其境，確有“砥柱中流”之感，好似登上普陀仙島。|DFPT" /&gt;</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Text Key="焦山介绍" Value="" /&gt;</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Text Key="焦山介绍" Value="" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Text Key="得撒石磨豆腐村介绍" Value="得撒石磨豆腐村位于江苏句容的茅山北麓，远离尘嚣与雾霾。这里的绿水，源自山涧之泉；这里的呼吸，伴有植物的芬芳。|HKHB" /&gt;</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;Text Key="得撒石磨豆腐村介绍" Value="得撒石磨豆腐村位於江蘇句容的茅山北麓，遠離塵囂與霧霾。這裡的綠水，源自山澗之泉；這裡的呼吸，伴有植物的芬芳。|DFPT" /&gt;</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Text Key="得撒石磨豆腐村介绍" Value="" /&gt;</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Text Key="得撒石磨豆腐村介绍" Value="" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Text Key="宝华山国家森林公园介绍" Value="公园因春天黄花漫山而得名，后因南北朝梁代高僧宝志来此结庵讲经，遂易名宝华山。公园里有“林麓之美，峰峦之秀，洞壑之深，烟霞之胜”四大奇景。|HKHB" /&gt;</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;Text Key="宝华山国家森林公园介绍" Value="公園因春天黃花漫山而得名，後因南北朝梁代高僧寶志來此結庵講經，遂易名寶華山。公園裡有「林麓之美，峰巒之秀，洞壑之深，煙霞之勝」四大奇景。|DFPT" /&gt;</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Text Key="宝华山国家森林公园介绍" Value="" /&gt;</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Text Key="宝华山国家森林公园介绍" Value="" /&gt;</v>
       </c>
     </row>
   </sheetData>
